--- a/res/which_is_the_fastest.xlsx
+++ b/res/which_is_the_fastest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taicsuzu/Documents/workspace/hobby/crystal/which_is_the_fastest/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taicsuzu/Documents/workspace/hobby/crystal/which_is_the_fastest/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Kemal</t>
     <phoneticPr fontId="1"/>
@@ -69,15 +69,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>nickel.rs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>time [sec]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IRON</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -122,6 +114,26 @@
   </si>
   <si>
     <t>Kitura</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IRON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nickel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Phoenix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sanic</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -176,6 +188,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FF9D842A"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFED9DF"/>
       <color rgb="FFFEC2C7"/>
@@ -185,7 +198,6 @@
       <color rgb="FF5087E7"/>
       <color rgb="FF96B0F0"/>
       <color rgb="FF64B0F0"/>
-      <color rgb="FF8D9BD5"/>
     </mruColors>
   </colors>
   <extLst>
@@ -215,8 +227,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0523573841346513"/>
-          <c:y val="0.956614744803286"/>
+          <c:x val="0.0537488777504564"/>
+          <c:y val="0.975440291026499"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -585,6 +597,27 @@
               <c:idx val="13"/>
               <c:layout>
                 <c:manualLayout>
+                  <c:x val="-0.000271985504026009"/>
+                  <c:y val="0.00119677643085459"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
                   <c:x val="0.000458280107887681"/>
                   <c:y val="0.0"/>
                 </c:manualLayout>
@@ -603,7 +636,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="15"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-0.00122284572810991"/>
@@ -624,10 +657,31 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
+              <c:idx val="16"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-0.00209840020767492"/>
+                  <c:y val="0.0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00161832152638961"/>
                   <c:y val="0.0"/>
                 </c:manualLayout>
               </c:layout>
@@ -684,7 +738,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -704,9 +757,9 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$B$3:$C$18</c:f>
+              <c:f>Sheet1!$B$3:$C$20</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Ruby on Rails</c:v>
@@ -733,10 +786,10 @@
                     <c:v>fasthttprouter</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>nickel.rs</c:v>
+                    <c:v>IRON</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>IRON</c:v>
+                    <c:v>nickel</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>Rocket</c:v>
@@ -748,13 +801,19 @@
                     <c:v>Plug</c:v>
                   </c:pt>
                   <c:pt idx="13">
+                    <c:v>Phoenix</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>Vapor</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>Perfect</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Kitura</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>sanic</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -776,8 +835,11 @@
                   <c:pt idx="12">
                     <c:v>Elixir</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>Swift</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Python</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -785,57 +847,63 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$18</c:f>
+              <c:f>Sheet1!$D$3:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>194.492846</c:v>
+                  <c:v>191.423132</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.426645</c:v>
+                  <c:v>52.781817</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.341116</c:v>
+                  <c:v>20.084897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.611196</c:v>
+                  <c:v>4.528525</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.077231</c:v>
+                  <c:v>3.212453</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.480727</c:v>
+                  <c:v>5.306032</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.309696</c:v>
+                  <c:v>5.28545</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.644692</c:v>
+                  <c:v>3.612285</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.97154</c:v>
+                  <c:v>4.071724</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.949093</c:v>
+                  <c:v>4.104561</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.559089</c:v>
+                  <c:v>11.240001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.626159</c:v>
+                  <c:v>18.696212</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.033695</c:v>
+                  <c:v>5.446931</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.265741</c:v>
+                  <c:v>5.93153</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.35325</c:v>
+                  <c:v>38.290329</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.247293</c:v>
+                  <c:v>13.179673</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.606962</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.606321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -852,11 +920,11 @@
         </c:dLbls>
         <c:gapWidth val="269"/>
         <c:overlap val="-20"/>
-        <c:axId val="2137131344"/>
-        <c:axId val="2137128528"/>
+        <c:axId val="-2127347920"/>
+        <c:axId val="-2127350656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2137131344"/>
+        <c:axId val="-2127347920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -896,7 +964,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137128528"/>
+        <c:crossAx val="-2127350656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -904,7 +972,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137128528"/>
+        <c:axId val="-2127350656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -950,7 +1018,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137131344"/>
+        <c:crossAx val="-2127347920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1580,13 +1648,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>87383</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>38788</xdr:rowOff>
+      <xdr:rowOff>38786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>169263</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>160180</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>245807</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1661,7 +1729,7 @@
     </cdr:from>
     <cdr:to>
       <cdr:x>0.6558</cdr:x>
-      <cdr:y>0.53878</cdr:y>
+      <cdr:y>0.46145</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1670,8 +1738,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3421037" y="1723744"/>
-          <a:ext cx="2575266" cy="2003340"/>
+          <a:off x="3414777" y="2521506"/>
+          <a:ext cx="2570551" cy="2147999"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1797,7 +1865,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
             </a:rPr>
             <a:t> </a:t>
@@ -1805,11 +1873,16 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Swift</a:t>
-          </a:r>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Elixir</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1848,16 +1921,11 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Elixir</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
-          </a:endParaRPr>
+                <a:srgbClr val="9D842A"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Python</a:t>
+          </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1888,6 +1956,49 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Swift</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
             </a:rPr>
@@ -1902,7 +2013,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>7. </a:t>
+            <a:t>8. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
@@ -1923,7 +2034,7 @@
     </cdr:from>
     <cdr:to>
       <cdr:x>0.98861</cdr:x>
-      <cdr:y>0.80483</cdr:y>
+      <cdr:y>0.67266</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1932,8 +2043,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6069223" y="1722665"/>
-          <a:ext cx="2970175" cy="3844853"/>
+          <a:off x="6058068" y="2519989"/>
+          <a:ext cx="2964736" cy="4286836"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1978,24 +2089,6 @@
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>fasthttprouter</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -2014,18 +2107,26 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>3. </a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IRON</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>fasthttprouter</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2047,7 +2148,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>4. </a:t>
+            <a:t>3. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
@@ -2055,8 +2156,9 @@
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>nickel.rs</a:t>
-          </a:r>
+            <a:t>IRON</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2078,15 +2180,15 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>5. </a:t>
+            <a:t>4. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Kemal</a:t>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>nickel.rs</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -2109,15 +2211,15 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>6. </a:t>
+            <a:t>5. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>gorilla/mux</a:t>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Kemal</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -2139,20 +2241,16 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>6. </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>7.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> Echo</a:t>
+            <a:t>gorilla/mux</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -2179,15 +2277,15 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>8. </a:t>
+            <a:t>7.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Rocket</a:t>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Echo</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -2214,16 +2312,17 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>9. </a:t>
+            <a:t>8. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Perfect</a:t>
-          </a:r>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Plug</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2249,16 +2348,21 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>10. </a:t>
+            <a:t>9. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Kitura</a:t>
-          </a:r>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Phoenix</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2284,36 +2388,16 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>11. </a:t>
+            <a:t>10. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Plug</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>12. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>express</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="00B050"/>
-            </a:solidFill>
-          </a:endParaRPr>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Rocket</a:t>
+          </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2334,16 +2418,20 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>13. </a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Roda</a:t>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="9D842A"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>sanic</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -2370,6 +2458,77 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
+            <a:t>12. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Perfect</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>13. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>express</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>14. </a:t>
           </a:r>
           <a:r>
@@ -2378,10 +2537,27 @@
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Vapor</a:t>
+            <a:t>Kitura</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t>15. </a:t>
@@ -2392,13 +2568,62 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
+            <a:t>Roda</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>16. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Vapor</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>17. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Sinatra</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>16. </a:t>
+            <a:t>18. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
@@ -2406,7 +2631,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Ruby on Rails</a:t>
+            <a:t>Rails</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400">
             <a:solidFill>
@@ -2420,11 +2645,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.34778</cdr:x>
-      <cdr:y>0.08866</cdr:y>
+      <cdr:y>0.04581</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.70767</cdr:x>
-      <cdr:y>0.14739</cdr:y>
+      <cdr:y>0.07882</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2433,8 +2658,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3165622" y="491205"/>
-          <a:ext cx="3275887" cy="325439"/>
+          <a:off x="3174104" y="463512"/>
+          <a:ext cx="3284629" cy="334044"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2463,12 +2688,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.36956</cdr:x>
-      <cdr:y>0.67748</cdr:y>
+      <cdr:x>0.35089</cdr:x>
+      <cdr:y>0.66371</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.5821</cdr:x>
-      <cdr:y>0.79102</cdr:y>
+      <cdr:x>0.56343</cdr:x>
+      <cdr:y>0.77725</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2477,8 +2702,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
-          <a:off x="3379028" y="4686575"/>
-          <a:ext cx="1943360" cy="785426"/>
+          <a:off x="3202519" y="6716175"/>
+          <a:ext cx="1939801" cy="1148936"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="stripedRightArrow">
           <a:avLst/>
@@ -2570,11 +2795,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.42862</cdr:x>
-      <cdr:y>0.1324</cdr:y>
+      <cdr:y>0.07271</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.61509</cdr:x>
-      <cdr:y>0.17739</cdr:y>
+      <cdr:y>0.1033</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2583,8 +2808,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3901510" y="733562"/>
-          <a:ext cx="1697290" cy="249252"/>
+          <a:off x="3911911" y="735759"/>
+          <a:ext cx="1701867" cy="309600"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2613,12 +2838,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.03924</cdr:x>
-      <cdr:y>0.07544</cdr:y>
+      <cdr:x>0.03393</cdr:x>
+      <cdr:y>0.056</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.08304</cdr:x>
-      <cdr:y>0.10686</cdr:y>
+      <cdr:x>0.07773</cdr:x>
+      <cdr:y>0.07626</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2627,8 +2852,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="358835" y="521843"/>
-          <a:ext cx="400449" cy="217388"/>
+          <a:off x="308871" y="575625"/>
+          <a:ext cx="398724" cy="208292"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2671,320 +2896,22 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.04059</cdr:x>
-      <cdr:y>0.12808</cdr:y>
+      <cdr:x>0.03805</cdr:x>
+      <cdr:y>0.26269</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.08439</cdr:x>
-      <cdr:y>0.15951</cdr:y>
+      <cdr:x>0.08185</cdr:x>
+      <cdr:y>0.28295</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <cdr:cNvPr id="13" name="テキスト ボックス 12"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="371160" y="886026"/>
-          <a:ext cx="400449" cy="217388"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>New!</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="800" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.04059</cdr:x>
-      <cdr:y>0.18101</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.08439</cdr:x>
-      <cdr:y>0.21243</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="11" name="テキスト ボックス 10"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="371161" y="1252152"/>
-          <a:ext cx="400449" cy="217388"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>New!</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="800" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.0431</cdr:x>
-      <cdr:y>0.35137</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.08689</cdr:x>
-      <cdr:y>0.38279</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="12" name="テキスト ボックス 11"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="394043" y="2430620"/>
-          <a:ext cx="400449" cy="217388"/>
+          <a:off x="346404" y="2700283"/>
+          <a:ext cx="398724" cy="208292"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3382,17 +3309,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D18"/>
+  <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="82" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -3403,7 +3330,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>194.49284599999999</v>
+        <v>191.42313200000001</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -3411,7 +3338,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>54.426645000000001</v>
+        <v>52.781816999999997</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -3419,7 +3346,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>21.341116</v>
+        <v>20.084897000000002</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -3430,15 +3357,15 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.6111959999999996</v>
+        <v>4.5285250000000001</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>3.0772309999999998</v>
+        <v>3.212453</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -3449,7 +3376,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5.4807269999999999</v>
+        <v>5.3060320000000001</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -3457,15 +3384,15 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>5.3096959999999997</v>
+        <v>5.28545</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>3.644692</v>
+        <v>3.612285</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -3473,75 +3400,94 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>3.9715400000000001</v>
+        <v>4.0717239999999997</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>3.949093</v>
+        <v>4.1045610000000003</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>11.559089</v>
+        <v>11.240000999999999</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>20.626159000000001</v>
+        <v>18.696211999999999</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>20.033695000000002</v>
+        <v>5.4469310000000002</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>5.9315300000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>38.290329</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D18">
+        <v>13.179672999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="D16">
-        <v>39.265740999999998</v>
+      <c r="D19">
+        <v>19.606961999999999</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17">
-        <v>13.353249999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18">
-        <v>19.247292999999999</v>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>11.606320999999999</v>
       </c>
     </row>
   </sheetData>

--- a/res/which_is_the_fastest.xlsx
+++ b/res/which_is_the_fastest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="11900" yWindow="540" windowWidth="19120" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Kemal</t>
     <phoneticPr fontId="1"/>
@@ -136,6 +136,22 @@
     <t>sanic</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>express/cluster</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aspnetcore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>japronto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.NET</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -222,41 +238,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0537488777504564"/>
-          <c:y val="0.975440291026499"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -267,17 +248,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>time [sec]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:pattFill prst="ltUpDiag">
               <a:fgClr>
@@ -576,6 +546,27 @@
               <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
+                  <c:x val="-0.00266853335846918"/>
+                  <c:y val="-4.46423984948345E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
                   <c:x val="-0.000457842713368154"/>
                   <c:y val="0.0"/>
                 </c:manualLayout>
@@ -594,7 +585,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-0.000271985504026009"/>
@@ -615,7 +606,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="15"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.000458280107887681"/>
@@ -636,7 +627,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
+              <c:idx val="16"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-0.00122284572810991"/>
@@ -657,7 +648,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="17"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-0.00209840020767492"/>
@@ -678,10 +669,52 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="18"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00230056148204963"/>
+                  <c:y val="0.0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-0.00161832152638961"/>
+                  <c:y val="0.0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00204268626678496"/>
                   <c:y val="0.0"/>
                 </c:manualLayout>
               </c:layout>
@@ -738,6 +771,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -757,9 +791,9 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$B$3:$C$20</c:f>
+              <c:f>Sheet1!$B$3:$C$23</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="21"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Ruby on Rails</c:v>
@@ -798,22 +832,31 @@
                     <c:v>express</c:v>
                   </c:pt>
                   <c:pt idx="12">
+                    <c:v>express/cluster</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
                     <c:v>Plug</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>Phoenix</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>Vapor</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Perfect</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>Kitura</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
+                    <c:v>aspnetcore</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
                     <c:v>sanic</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>japronto</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -832,13 +875,16 @@
                   <c:pt idx="11">
                     <c:v>node</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>Elixir</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>Swift</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
+                    <c:v>.NET</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
                     <c:v>Python</c:v>
                   </c:pt>
                 </c:lvl>
@@ -847,63 +893,72 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$20</c:f>
+              <c:f>Sheet1!$D$3:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>191.423132</c:v>
+                  <c:v>207.973664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.781817</c:v>
+                  <c:v>60.671163</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.084897</c:v>
+                  <c:v>21.414405</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.528525</c:v>
+                  <c:v>4.880489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.212453</c:v>
+                  <c:v>3.314785</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.306032</c:v>
+                  <c:v>5.454029</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.28545</c:v>
+                  <c:v>5.262688</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.612285</c:v>
+                  <c:v>4.328506</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.071724</c:v>
+                  <c:v>4.115573</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.104561</c:v>
+                  <c:v>4.571465</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.240001</c:v>
+                  <c:v>11.971965</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.696212</c:v>
+                  <c:v>18.180815</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.446931</c:v>
+                  <c:v>8.458056</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.93153</c:v>
+                  <c:v>5.889133</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>38.290329</c:v>
+                  <c:v>6.492349</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.179673</c:v>
+                  <c:v>6.736594</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.606962</c:v>
+                  <c:v>7.840937</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.606321</c:v>
+                  <c:v>19.141631</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.288783</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.726309</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.577817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -920,11 +975,11 @@
         </c:dLbls>
         <c:gapWidth val="269"/>
         <c:overlap val="-20"/>
-        <c:axId val="-2127347920"/>
-        <c:axId val="-2127350656"/>
+        <c:axId val="-2091684464"/>
+        <c:axId val="-2091687248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127347920"/>
+        <c:axId val="-2091684464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,7 +1019,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127350656"/>
+        <c:crossAx val="-2091687248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -972,7 +1027,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127350656"/>
+        <c:axId val="-2091687248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,7 +1073,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127347920"/>
+        <c:crossAx val="-2091684464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1729,7 +1784,7 @@
     </cdr:from>
     <cdr:to>
       <cdr:x>0.6558</cdr:x>
-      <cdr:y>0.46145</cdr:y>
+      <cdr:y>0.4652</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1738,8 +1793,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3414777" y="2521506"/>
-          <a:ext cx="2570551" cy="2147999"/>
+          <a:off x="3428315" y="2628062"/>
+          <a:ext cx="2580742" cy="2278285"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1792,20 +1847,6 @@
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>2. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Go</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -1824,16 +1865,28 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>3. </a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Rust</a:t>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="9D842A"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Python</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -1855,34 +1908,36 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>4.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Elixir</a:t>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Rust</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="7030A0"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Go</a:t>
+          </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1921,10 +1976,33 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
-                <a:srgbClr val="9D842A"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Python</a:t>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Elixir</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C#</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -1951,7 +2029,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>6.</a:t>
+            <a:t>7.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
@@ -1969,6 +2047,11 @@
             </a:rPr>
             <a:t>Swift</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1994,7 +2077,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>7.</a:t>
+            <a:t>8.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
@@ -2013,7 +2096,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>8. </a:t>
+            <a:t>9. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
@@ -2034,7 +2117,7 @@
     </cdr:from>
     <cdr:to>
       <cdr:x>0.98861</cdr:x>
-      <cdr:y>0.67266</cdr:y>
+      <cdr:y>0.71349</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2043,8 +2126,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6058068" y="2519989"/>
-          <a:ext cx="2964736" cy="4286836"/>
+          <a:off x="6082086" y="2626481"/>
+          <a:ext cx="2976490" cy="4898538"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2089,6 +2172,24 @@
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="9D842A"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>japronto</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -2107,24 +2208,20 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>fasthttprouter</a:t>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IRON</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="7030A0"/>
+              <a:srgbClr val="9D842A"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -2147,18 +2244,26 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>3. </a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IRON</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>fasthttprouter</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2180,7 +2285,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>4. </a:t>
+            <a:t>5. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
@@ -2211,7 +2316,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>5. </a:t>
+            <a:t>6. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
@@ -2242,7 +2347,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>6. </a:t>
+            <a:t>7. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
@@ -2277,7 +2382,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>7.</a:t>
+            <a:t>8.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
@@ -2312,7 +2417,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>8. </a:t>
+            <a:t>9. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
@@ -2322,7 +2427,6 @@
             </a:rPr>
             <a:t>Plug</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2348,21 +2452,16 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>9. </a:t>
+            <a:t>10. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Phoenix</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="00B050"/>
-            </a:solidFill>
-          </a:endParaRPr>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>aspnetcore</a:t>
+          </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2388,15 +2487,15 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>10. </a:t>
+            <a:t>11. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Rocket</a:t>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Phoenix</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -2423,15 +2522,15 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>11. </a:t>
+            <a:t>12. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="9D842A"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>sanic</a:t>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Vapor</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -2458,16 +2557,21 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>12. </a:t>
+            <a:t>13. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Perfect</a:t>
-          </a:r>
+                <a:srgbClr val="9D842A"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>sanic</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2488,22 +2592,21 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>13. </a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>express</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
-          </a:endParaRPr>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>14. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Perfect</a:t>
+          </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2529,15 +2632,15 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>14. </a:t>
+            <a:t>15. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Kitura</a:t>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>express/cluster</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -2559,16 +2662,20 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>15. </a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Roda</a:t>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>16. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Rocket</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -2590,40 +2697,107 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>16. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Vapor</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t>17. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>express</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>18. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Kitura</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>19. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
+            <a:t>Roda</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>20. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Sinatra</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>18. </a:t>
+            <a:t>21. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
@@ -2838,12 +3012,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.03393</cdr:x>
-      <cdr:y>0.056</cdr:y>
+      <cdr:x>0.02587</cdr:x>
+      <cdr:y>0.02887</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.07773</cdr:x>
-      <cdr:y>0.07626</cdr:y>
+      <cdr:x>0.05993</cdr:x>
+      <cdr:y>0.04708</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2852,8 +3026,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="308871" y="575625"/>
-          <a:ext cx="398724" cy="208292"/>
+          <a:off x="236415" y="303510"/>
+          <a:ext cx="311204" cy="191472"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2874,9 +3048,10 @@
         </a:fontRef>
       </cdr:style>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0" anchor="ctr"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="800" b="1">
               <a:solidFill>
@@ -2896,22 +3071,22 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.03805</cdr:x>
-      <cdr:y>0.26269</cdr:y>
+      <cdr:x>0.02671</cdr:x>
+      <cdr:y>0.12037</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.08185</cdr:x>
-      <cdr:y>0.28295</cdr:y>
+      <cdr:x>0.06077</cdr:x>
+      <cdr:y>0.13683</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <cdr:cNvPr id="11" name="テキスト ボックス 10"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="346404" y="2700283"/>
-          <a:ext cx="398724" cy="208292"/>
+          <a:off x="244061" y="1265583"/>
+          <a:ext cx="311204" cy="173068"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2932,7 +3107,7 @@
         </a:fontRef>
       </cdr:style>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="ctr"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
@@ -3026,6 +3201,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="800" b="1">
               <a:solidFill>
@@ -3309,10 +3485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D20"/>
+  <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="79" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -3330,7 +3506,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>191.42313200000001</v>
+        <v>207.97366400000001</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -3338,7 +3514,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>52.781816999999997</v>
+        <v>60.671163</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -3346,7 +3522,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>20.084897000000002</v>
+        <v>21.414404999999999</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -3357,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.5285250000000001</v>
+        <v>4.8804889999999999</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -3365,7 +3541,7 @@
         <v>13</v>
       </c>
       <c r="D7">
-        <v>3.212453</v>
+        <v>3.3147850000000001</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -3376,7 +3552,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5.3060320000000001</v>
+        <v>5.4540290000000002</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -3384,7 +3560,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>5.28545</v>
+        <v>5.2626879999999998</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -3392,7 +3568,7 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>3.612285</v>
+        <v>4.328506</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -3403,7 +3579,7 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>4.0717239999999997</v>
+        <v>4.1155730000000004</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -3411,7 +3587,7 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>4.1045610000000003</v>
+        <v>4.5714649999999999</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -3419,7 +3595,7 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>11.240000999999999</v>
+        <v>11.971965000000001</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -3430,64 +3606,91 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>18.696211999999999</v>
+        <v>18.180814999999999</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>5.4469310000000002</v>
+        <v>8.4580559999999991</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>5.9315300000000004</v>
+        <v>5.8891330000000002</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>38.290329</v>
+        <v>6.4923489999999999</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>13.179672999999999</v>
+        <v>6.7365940000000002</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>19.606961999999999</v>
+        <v>7.8409370000000003</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>19.141631</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>6.2887829999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="D20">
-        <v>11.606320999999999</v>
+      <c r="D22">
+        <v>7.7263089999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>3.577817</v>
       </c>
     </row>
   </sheetData>
